--- a/Comiters/qsh.xlsx
+++ b/Comiters/qsh.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>android.view.View; android.animation.AnimatorSet; android.animation.ObjectAnimator; android.view.Gravity; android.widget.FrameLayout; android.content.Context; android.util.Log; android.util.AttributeSet; android.support.v4.view.ViewCompat</t>
+          <t>android.view.View; android.util.Log; android.view.Gravity; android.animation.ObjectAnimator; android.util.AttributeSet; android.animation.AnimatorSet; android.support.v4.view.ViewCompat; android.widget.FrameLayout; android.content.Context</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
